--- a/gap_result_1_Black.xlsx
+++ b/gap_result_1_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0008579244086306145</v>
+        <v>-0.0008828923011595519</v>
       </c>
       <c r="D2">
-        <v>0.9171522804288236</v>
+        <v>0.9158599917917019</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0007083053468119329</v>
+        <v>-0.0007024097697459163</v>
       </c>
       <c r="D3">
-        <v>0.975964128076787</v>
+        <v>0.9773256287089692</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002524429509935425</v>
+        <v>0.001406949919769362</v>
       </c>
       <c r="D4">
-        <v>0.8659994238922949</v>
+        <v>0.9268960559824408</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003664459574439859</v>
+        <v>-0.0004149285689260505</v>
       </c>
       <c r="D5">
-        <v>0.9800841668097261</v>
+        <v>0.9778217818570013</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006535073839947475</v>
+        <v>0.001652842918584202</v>
       </c>
       <c r="D6">
-        <v>0.5855989635662685</v>
+        <v>0.8945300567596458</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_Black.xlsx
+++ b/gap_result_1_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0008828923011595519</v>
+        <v>-0.001180644622611915</v>
       </c>
       <c r="D2">
-        <v>0.9158599917917019</v>
+        <v>0.8856105492816431</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0007024097697459163</v>
+        <v>-0.0006032343514265626</v>
       </c>
       <c r="D3">
-        <v>0.9773256287089692</v>
+        <v>0.978761284999854</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001406949919769362</v>
+        <v>0.002323449598945777</v>
       </c>
       <c r="D4">
-        <v>0.9268960559824408</v>
+        <v>0.8760991249478235</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0004149285689260505</v>
+        <v>-0.0003651493418570934</v>
       </c>
       <c r="D5">
-        <v>0.9778217818570013</v>
+        <v>0.9797821689493227</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001652842918584202</v>
+        <v>0.006562706751018554</v>
       </c>
       <c r="D6">
-        <v>0.8945300567596458</v>
+        <v>0.5824625103594234</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_Black.xlsx
+++ b/gap_result_1_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.001180644622611915</v>
+        <v>-0.0006672469147418342</v>
       </c>
       <c r="D2">
-        <v>0.8856105492816431</v>
+        <v>0.9363364806490914</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0006032343514265626</v>
+        <v>-0.0006518325693648473</v>
       </c>
       <c r="D3">
-        <v>0.978761284999854</v>
+        <v>0.9789500144994535</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002323449598945777</v>
+        <v>0.00148340252028456</v>
       </c>
       <c r="D4">
-        <v>0.8760991249478235</v>
+        <v>0.92290689103956</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003651493418570934</v>
+        <v>-0.0003469725632501523</v>
       </c>
       <c r="D5">
-        <v>0.9797821689493227</v>
+        <v>0.9814463991503456</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006562706751018554</v>
+        <v>0.001665953734762837</v>
       </c>
       <c r="D6">
-        <v>0.5824625103594234</v>
+        <v>0.8936587428034717</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_Black.xlsx
+++ b/gap_result_1_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0006672469147418342</v>
+        <v>-0.00109259761553214</v>
       </c>
       <c r="D2">
-        <v>0.9363364806490914</v>
+        <v>0.8960797469192783</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0006518325693648473</v>
+        <v>-0.001185922900104326</v>
       </c>
       <c r="D3">
-        <v>0.9789500144994535</v>
+        <v>0.961764645927635</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.00148340252028456</v>
+        <v>0.001166301971231021</v>
       </c>
       <c r="D4">
-        <v>0.92290689103956</v>
+        <v>0.9394329041855554</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003469725632501523</v>
+        <v>-0.0008348201216449545</v>
       </c>
       <c r="D5">
-        <v>0.9814463991503456</v>
+        <v>0.955439720351042</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001665953734762837</v>
+        <v>0.001633245509987896</v>
       </c>
       <c r="D6">
-        <v>0.8936587428034717</v>
+        <v>0.8958754814582135</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_Black.xlsx
+++ b/gap_result_1_Black.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
